--- a/510k/表/D段位.xlsx
+++ b/510k/表/D段位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18285" windowHeight="8700"/>
+    <workbookView windowWidth="28215" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>段位</t>
   </si>
   <si>
+    <t>扣分比</t>
+  </si>
+  <si>
     <t>晋级分数</t>
   </si>
   <si>
@@ -31,6 +34,9 @@
   </si>
   <si>
     <t>dw</t>
+  </si>
+  <si>
+    <t>kfb</t>
   </si>
   <si>
     <t>jqfs</t>
@@ -127,7 +133,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,27 +143,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -166,38 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +209,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -218,17 +232,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,46 +270,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,19 +295,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,163 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,11 +489,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,15 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -538,17 +552,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,173 +586,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,19 +1088,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1111,369 +1111,450 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
+        <v>0.9644</v>
+      </c>
+      <c r="D3">
         <v>10000</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
+        <v>0.9688</v>
+      </c>
+      <c r="D4">
         <v>10000</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
+        <v>0.9732</v>
+      </c>
+      <c r="D5">
         <v>10000</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
+        <v>0.9776</v>
+      </c>
+      <c r="D6">
         <v>10000</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
+        <v>0.982</v>
+      </c>
+      <c r="D7">
         <v>10000</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
+        <v>0.9864</v>
+      </c>
+      <c r="D8">
         <v>15000</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
+        <v>0.9908</v>
+      </c>
+      <c r="D9">
         <v>15000</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
+        <v>0.9952</v>
+      </c>
+      <c r="D10">
         <v>15000</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
+        <v>0.9996</v>
+      </c>
+      <c r="D11">
         <v>15000</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12">
+        <v>1.004</v>
+      </c>
+      <c r="D12">
         <v>15000</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
+        <v>1.0084</v>
+      </c>
+      <c r="D13">
         <v>20000</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14">
+        <v>1.0128</v>
+      </c>
+      <c r="D14">
         <v>20000</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
+        <v>1.0172</v>
+      </c>
+      <c r="D15">
         <v>20000</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16">
+        <v>1.0216</v>
+      </c>
+      <c r="D16">
         <v>20000</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17">
+        <v>1.026</v>
+      </c>
+      <c r="D17">
         <v>20000</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18">
+        <v>1.0304</v>
+      </c>
+      <c r="D18">
         <v>25000</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19">
+        <v>1.0348</v>
+      </c>
+      <c r="D19">
         <v>25000</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20">
+        <v>1.0392</v>
+      </c>
+      <c r="D20">
         <v>25000</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21">
+        <v>1.0436</v>
+      </c>
+      <c r="D21">
         <v>25000</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22">
+        <v>1.048</v>
+      </c>
+      <c r="D22">
         <v>25000</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23">
+        <v>1.0524</v>
+      </c>
+      <c r="D23">
         <v>30000</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24">
+        <v>1.0568</v>
+      </c>
+      <c r="D24">
         <v>30000</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25">
+        <v>1.0612</v>
+      </c>
+      <c r="D25">
         <v>30000</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26">
+        <v>1.0656</v>
+      </c>
+      <c r="D26">
         <v>30000</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27">
+        <v>1.07</v>
+      </c>
+      <c r="D27">
         <v>30000</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
+      <c r="E27" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/510k/表/D段位.xlsx
+++ b/510k/表/D段位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="11490"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>段位</t>
   </si>
   <si>
-    <t>扣分比</t>
-  </si>
-  <si>
     <t>晋级分数</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
   </si>
   <si>
     <t>dw</t>
-  </si>
-  <si>
-    <t>kfb</t>
   </si>
   <si>
     <t>jqfs</t>
@@ -142,35 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -239,21 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +220,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -281,6 +260,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +289,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,180 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,21 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,20 +533,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +565,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,16 +600,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,115 +618,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,20 +1082,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1111,450 +1104,369 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.9644</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.9688</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.9732</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.9776</v>
-      </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.982</v>
-      </c>
-      <c r="D7">
-        <v>10000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.9864</v>
-      </c>
-      <c r="D8">
-        <v>15000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.9908</v>
-      </c>
-      <c r="D9">
-        <v>15000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.9952</v>
-      </c>
-      <c r="D10">
-        <v>15000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.9996</v>
-      </c>
-      <c r="D11">
-        <v>15000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>1.004</v>
-      </c>
-      <c r="D12">
-        <v>15000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>1.0084</v>
-      </c>
-      <c r="D13">
-        <v>20000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>400</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>1.0128</v>
-      </c>
-      <c r="D14">
-        <v>20000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>400</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>1.0172</v>
-      </c>
-      <c r="D15">
-        <v>20000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>400</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>1.0216</v>
-      </c>
-      <c r="D16">
-        <v>20000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>400</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>1.026</v>
-      </c>
-      <c r="D17">
-        <v>20000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>400</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>1.0304</v>
-      </c>
-      <c r="D18">
-        <v>25000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>1.0348</v>
-      </c>
-      <c r="D19">
-        <v>25000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>1.0392</v>
-      </c>
-      <c r="D20">
-        <v>25000</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>1.0436</v>
-      </c>
-      <c r="D21">
-        <v>25000</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>1.048</v>
-      </c>
-      <c r="D22">
-        <v>25000</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>1.0524</v>
-      </c>
-      <c r="D23">
-        <v>30000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>1.0568</v>
-      </c>
-      <c r="D24">
-        <v>30000</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>1.0612</v>
-      </c>
-      <c r="D25">
-        <v>30000</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>1.0656</v>
-      </c>
-      <c r="D26">
-        <v>30000</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>1.07</v>
-      </c>
-      <c r="D27">
-        <v>30000</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/510k/表/D段位.xlsx
+++ b/510k/表/D段位.xlsx
@@ -136,6 +136,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -156,6 +163,59 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,31 +234,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,60 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,54 +289,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,127 +403,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +480,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,31 +547,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,36 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/510k/表/D段位.xlsx
+++ b/510k/表/D段位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27255" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>段位</t>
   </si>
   <si>
+    <t>扣分比</t>
+  </si>
+  <si>
     <t>晋级分数</t>
   </si>
   <si>
@@ -31,6 +34,9 @@
   </si>
   <si>
     <t>dw</t>
+  </si>
+  <si>
+    <t>gfb</t>
   </si>
   <si>
     <t>jqfs</t>
@@ -122,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,12 +151,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -166,46 +203,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +242,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -227,54 +279,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,19 +295,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,25 +343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +409,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,96 +476,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,45 +500,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +528,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -580,6 +562,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +606,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,115 +624,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,19 +1088,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1104,369 +1110,450 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
         <v>200</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4">
         <v>200</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
         <v>200</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
+        <v>92</v>
+      </c>
+      <c r="D6">
         <v>200</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
+        <v>92</v>
+      </c>
+      <c r="D7">
         <v>200</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
         <v>300</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
         <v>300</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
+        <v>94</v>
+      </c>
+      <c r="D10">
         <v>300</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
+        <v>94</v>
+      </c>
+      <c r="D11">
         <v>300</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12">
+        <v>94</v>
+      </c>
+      <c r="D12">
         <v>300</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
+        <v>96</v>
+      </c>
+      <c r="D13">
         <v>400</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
         <v>400</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
+        <v>96</v>
+      </c>
+      <c r="D15">
         <v>400</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16">
+        <v>96</v>
+      </c>
+      <c r="D16">
         <v>400</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17">
+        <v>96</v>
+      </c>
+      <c r="D17">
         <v>400</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18">
+        <v>98</v>
+      </c>
+      <c r="D18">
         <v>500</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19">
+        <v>98</v>
+      </c>
+      <c r="D19">
         <v>500</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20">
+        <v>98</v>
+      </c>
+      <c r="D20">
         <v>500</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21">
+        <v>98</v>
+      </c>
+      <c r="D21">
         <v>500</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22">
+        <v>98</v>
+      </c>
+      <c r="D22">
         <v>500</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
         <v>600</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
         <v>600</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
         <v>600</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
         <v>600</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
         <v>600</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
+      <c r="E27" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/510k/表/D段位.xlsx
+++ b/510k/表/D段位.xlsx
@@ -36,7 +36,7 @@
     <t>dw</t>
   </si>
   <si>
-    <t>gfb</t>
+    <t>kfb</t>
   </si>
   <si>
     <t>jqfs</t>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,8 +142,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,60 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,42 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -295,6 +295,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,60 +445,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,72 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,26 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +519,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -539,6 +539,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,30 +586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
